--- a/medicine/Enfance/Olga_Perovskaïa/Olga_Perovskaïa.xlsx
+++ b/medicine/Enfance/Olga_Perovskaïa/Olga_Perovskaïa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olga_Perovska%C3%AFa</t>
+          <t>Olga_Perovskaïa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olga Vassilievna Perovskaïa (en russe : Ольга Васильевна Перовская), née le 9 avril 1902 et morte le 18 septembre 1961, est une écrivaine spécialisée dans la littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olga_Perovska%C3%AFa</t>
+          <t>Olga_Perovskaïa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Olga Perovskaïa est la petite-fille du révolutionnaire Vassili Perovski, frère de Sofia Perovskaïa, première femme condamnée à mort en Russie, en 1881, pour raison politique. Olga naquit au village Vassilievka de l'ouiezd de Melitopol dans le gouvernement de Tauride, où résidait sa famille. Son père, Vassili Perovski junior, (1876-1944) a été nommé chercheur forestier en 1902, par l'institut forestier de Saint-Pétersbourg. Il se maria en 1899 à la fille d'un sous-officier, Maria Davidovna Krzyzanowski, (1876-1932). Ils eurent quatre filles : Sofia (née le 26/03/1900), Olga (née le 27/03/1902), Julia (née le 24/04/1904) et Natalia (née le 29/03/1906), toute la famille était de religion orthodoxe. 
 Entre 1923 et 1926, Olga Perovskaïa étudia à la faculté de biologie de l'Université de Moscou.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olga_Perovska%C3%AFa</t>
+          <t>Olga_Perovskaïa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>«Ребята и зверята», М.— Л., 1925 ; « Les enfants et les jeunes animaux », Moscou - Leningrad, 1925 ;
 «Мои волчата», М. — Л., 1927 ; « Mes loups », Moscou - Leningrad, 1927 ;
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Olga_Perovska%C3%AFa</t>
+          <t>Olga_Perovskaïa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Olga Perovskaïa, Des Enfants et des bêtes s'aimaient, Traduit du russe et présenté par Robert Philippon, éditions Nathan, 1974</t>
         </is>
